--- a/Testdata/TC_73.xlsx
+++ b/Testdata/TC_73.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+hkAAB+LCAAAAAAAAAOlGU1v48b1rxA+NQeJpGSvvcYsA0uyXaGSZVh0vZtLMSLHFmuSo5BD27rtpUizaU5NguY7e0pRdNMcWqDItul/CSrv9tS/0DcfHH5I3kTbhWFz3te8ee/N+5hFb95EoXFFkjSg8YMNu2ltGCT2qB/EFw82MnbesO9tvOmg/RuPhMc4wRFhQGwAV5zu3qTBg40pY7Nd07y+vm5et5s0uTBblmWbD4eDsTclEW4Eccpw7JENzeX/ONeGg7p+NCQM+5hhyflgoz/uN7sk8HoAG+IYX5Ck2cnSICZpuh+zgAUk5ZwJwYx0e8NfyoM5rea9po3MJXhB2cmC0Jd0FUoJV3SwLXGDiDgty95pWDuNtu3arV3b2t20mptb1ls5oyZEA5yyMUmuAk8AxgxHM8Fu7bRtu2VbmxYyVxKBrMIADhqF/gm5ClLid0kYpmtZxFQO3PMYnHo9Y4J6JV4l6PVVOEzwbOoGLCTrqdHpuUYUK10KIQ46oAnxwH6vpdIRuR4lyqzubABYdxokbN7D87VlnaYkGc24kdZjdVCPxmwvJAk7nYGviQ+hAAiHJRlB5h3IgqkXpB58B3FGfOcch2mZqYJEZzS5TGfYI0dwj00u4zoOKfYh4FiQssBLCwFLGHSc0BmIhN07NPQPQGxOvQKjZfdjMDLfuEPpZV18FYmEX4WHwasR1vKX4Gg8pdejOJyPs0nqJcGE+L1OTr0Sh/iVVNzdLGU0Ai0KEJKwEmQ4NOfwD25hHYN6xAsiHB6HYMnUaYOgCgDtZYyeB6xLwyyKtUlrUHQGh3LJDVN+1ks0AgfH3O407sc1IStxVY4Tep3HzjJcmKEE3ks97ZNlTJ26BzAVlcsI4RN+yIMghBpR9kYJWo2L8ZQQtjIoJAbxdHjAq47TmfM9kVlAEAQnRDhAHfv+/e2GZcOPa1m74gd21mi0H/viA2rMvYbd4nm7oMuR6CiLRhO4xVfiTI4NuBoIwSnCTojjS4CeBWx6tJdrvwKD5JnvpF/GIbivsxDPBVjbpQxD/dgLM5/INNCPz0VMct0U9Z14tAQawM12EI7n7nzG04F5B0WPnOMshArFIJFcFDmiBkZ76WWdpgxCp0mY+9jh9T+FBsDzo6YHKZIXuaZHIw4woe6ejZFZpud53iP78cUAxxcZZFJtxzpcRxjPAW6C45QfRyfOWrCtJkK5X2RCd6SzRpkIJ+ksClhk1uiQS6IZTXA4BMMEB1ksiqaqCmDhIWZTtYLLGxIvN7JZsGquqma54j9GJq6hPAbP8uVrWIIKKn4Y2WuUiAog4uccUh/KPQ6DSVIJs5U4cFlRBPOA48dbsyDmXoCGEzLML8icdyHFQsF51Dp2jhAr1AWVnPHJ5k5ry7q3A8mbr5E48iGFNjeOgNTokQnbNXo0Iry07Rqdzq5RQc9oGjBwr7SVuoCvLaXMjw4S8nYGLfZcqDaEAK4AqnhIsRdBjMMlOo0o6J0h1N1pOC9RypMPqAeEtx/8a/HdZ4vH3y2ePP3vPz5ZfPrPxW++ho9OB34p5LM/3P75e3lqyYRcPAmJUMzt7OxY7U0IQA1CKm9A+fczjwnYo0eiHdBrpPpaseju97uHg45INBqYs/NWI+OXZIDnNCuWY3kYsZHwtJkHiCRx3DxxqXUF2yO8B5C3k7ewV6RKXcbfxSht8eL51y+eP7uTWxmsKDpQa1oNa/Mn1CS7zWuStbIm8dFAdn754LHFBw+7XSKu0aATmJ+g0dN26vtO27buW9vblq2TvK/jehVRHaUkufjCrPFJUJdmMUvmOgTK6xwp4t+Fy6LR8kaUFipU//bey798WKFS1lWQqhRQjmaJjCYzXwjRRyeuMR6dnnT3DXd/zOOkwJXopPBXEKvd9b0qB83yrauE1CqoFPdKxvqOhwnNZksZo4CuoFyZO5axNU5hm2XVCtwKeuW1z367ikGdRMXMaRwwPcuVYaiCkaASXl3Bj7//99/fWTz7cvHkq9v33l08/WDx/tOKHLWbHnQgdOGClJc6kiGLqcpSg6CzsbDppfWrUiVRQN4kHtMgZqlj21uiQVRLBLw2Fyf+on4E1U1IFmYDeA2Cfo7T/RumLqtzhMwqABSdYSistGilNUDm5cK8//n8i9tP/3r70bcv3/nT4skfF7/76MXzL19+81TepNsPv719/xuVuevJXejCG3TZ8Rli4vMMfsMMXqaNHx7/3ogpM6C/MDKRZX54/HFJGFdUdCKFZOjftCJVFZZIy8yczyiponWo8GkWWeu7vCy1NYUqTHQWeMUmbzW4KGhCDYH4Wd9tZCkxKLROb8BJqsQF80/lUyyyTB5vWy27pbBSG36ECU5Lpj8M6QSHRo4Q81SNpML1aoaCVux3OBh19gYFiVRilPgwfll8KOQfKO8feZnop/lKTxEFBLDQ43lZyCfgJbJllJZcSmemGiXP93z+suhYlhjWqjWvQgEDeZLIbidWz5PjbAadbz4v340XLzGlXvdItqXl7rdY93tVPKxLWChuVTQHCLzIUAols1U/5WOr7FyPuGmKJeAqrzdgDvUCKbunqwBcYvLEs58kNFmZfQpMTjaEphkyillYXNMIn8oG2y98lQPyjKc/5JinTkh7JCRsvec5s+AeQgf8urzg+3VZ++ko9JUx15sytFkKAeU3Sh4o/+8TpQy2vSSBZom/Z6z9pphPqScw3K6pjTyKYOTTHuyuHv0OgiRlD3kmUF8S8khDHsmu86GzuS17y4cSICjkhzqkkm5W1MyvLpMvxTQcBFGw5gRo5fe7KgRsOZvJtqy/XqTw0nJEbqBpLEmApDj5NZQNPsasJ00GLORSzc8fZtLgYsrWVWx7golPJlbDm5BWY9OH5v4+ITAR2PAbey0YI7b4q44SDpkjINdrbmLmDiv+B8f5H94MWG/6GQAA</t>
+          <t>0RsAAB+LCAAAAAAAAAOlWVuPI0cV/iuteYIHu9uXuaq2o/FlBgt7PBr3MLt5QeXu8riYvpju6pnx20pRCGzIE0lEIBCWFxBiQx5AQlkU/kuEZ5cn/gKnLn21Z5ceVtZu1/nOOVV16tyqFr1z67naNQkjGviPthp1Y0sjvh041L98tBWzWa2xs/WOifq3NnFPcYg9woBZAyk/OriN6KOtOWOLA12/ubmp37TqQXipNw2joT8eDSf2nHi4Rv2IYd8mW6mU83apLRN1HW9EGHYww1Ly0dZgMqh3CbV7QBthH1+SsN6JI+qTKOr7jDJKIi4ZEsxItzf6gdyY2azv1BtIX6NnnJ2Yuo7kK3BKuuKDaYlFPWI2jaZRM/ZqzbZl7B602wdGq77T2nk3EUwZ0RBHbELCa2oLwoRhbyHEjb1m29htt40W0jcyga7MACYau84ZuaYRcbrEdaNKFtHVAR7aDHZdzZgG0nOyStHDl3Ac4sXcoswlVcWPgpDYYKgHzX1Cbsahsp+1GAJqzWnIlj28rKzrPCLheMGtUU3URL3AZ4cuCdn5Ag6VOHDmAJgsjAnS7wEzoR6NbPimfkwcc4bdKC9UANFFEF5FC2yTEwhYneu48d0AO+BZjEaM2lGmYA1Bp2GwAJUweydwnSNQm3BvQFLdAx+MzCfuBMFVWX0RRMILhD/AqXo41b9GR5N5cDP23eUknkZ2SKfE6XUS7o0Y4rGnpLtxxAIPVpGRkKTlKKORvoQ/EG5lBPWITT3snrpgyciEQC0S0GHMghll3cCNPT81aYmKLmBTFrll6pzTIRrDAfvc7oE/8EtKNmJFibPgJvGddbowQ458GNnpmawjZe4e0JRXrgPiTPgmj6gLxSB/Gjlq0S8mc0LYRqeQCOJ574iXF7Oz5HMiPaMgcE7wcKBC5jR2avBrGpZhHIgfzJzCqO87GV+jWWs1cnwJiE5ibzyFKL4WezIbgJVICHbhdlzsXwH1grL5yWGy+g0Iknu+l38dQxCvCxcvBTm1S56GBr7txg6RaWDgz4RP8rUp7ntxtEYaQmTzLEBmOHah0jDIE5dZCiiR0WF0VebJk9B56CZHaPI6HkEhtx2vbkMG5MWqbgceJ+hQPy8mSM/z8zRuk75/OcT+ZQyJMjVTmZ46EA9xK8R+xPeT5sWSL21mQonZZb425VmMY+Et8iwCQJFe4kMW8RZBiN0RGIYexb4ofirpgyVHmM3VCGLTJXbOyoloKlVcWbLwt7GJKJPb4Ek8H2U5quDim5E9Q44pIyK+z1HgQNnGLp2GBS/aiMGRZTUu8Se+vYr1LjkFaBwhgXyfLHk3kQ0U3VouiNlIADFCXViSOTlr7zW3jZ09yM18jMSWjwNoV30PWLUembIDrRd4hFeuA63TOdAK8CKIKIPjlbZS8fVgLXl5dBSSH8fQKi/F0kbgwAVCEYcMekl97K7xpUDGb46grM7dZY5T7nwY2MB49/E/V19/vnr69erZ8//841er37+3+sn78NHpwF8KfPHLuz9/I3cthZCFpy4RC7M6e3tGqw0OmJIQt7ku6r4T20zQnjwR1T4dI9WfikG3P+geDzvgaDliIs47iZgHyRAvgzgbTuRmxETipPXEQSSLaQl92biA9ggv8TI6eSt6TYrcefw+QWmLVy//8Orli3ullcEKJadZM9o1o/G2ktNo8ZJjbCw5vMWXjZ26QDT2awb8mjnmEg86g3sQ9HGpnQaO2WoY+8burtFI1g+0xK83MZUhpcnCl3pJTpK6QeyzcJm6QH6cgML/LQiWFJYRkRsoV/3bh6//8kmBS1lXUYpaYHFBHEpv0pOBUH1yZmmT8flZt69Z/Qn3kwzL8Unlb2BWs6dxlXea9agruNQmqlT3RsHyjMdhEC/WMkZG3cC5MXesoyVJYZv1pWXYBn51ap//dJOA2onymXOfMrPTszTPT51M0FABkaQcrkLws2/+9fcPVi++WD373d2HP1s9/3j10fOCHjVbeo8B14UAyQ9TT4YspipLiYIuJsKmV8YPc5VEEXkPeBpQn0Vmo7Et+j81RCDb4OrEv2jgQXUTmoXZgF6ioO/hqH/LVLCaJ0gvEmChCwyFNcg65ZQg83Jm3n//5rd3v/7r3adfvf7gT6tnf1z9/NNXL794/eVzGUl3n3x199GXKnOXk7tYC++/ZcuniQudrfEI03iZ1r59+gvND5gG/YUWiyzz7dPPcsr4QkUnkmmG/i1dSHEJa6x5YS6n5ZaSrqEgl4rIWt/lZamVcqjCFCyonU3ybo2rgiZUE8B3BlYtjogWQOv0XdhJkTkT/l/llIgsk6e7RrPRVKhcDd/CFEc50x+7wRS7WgKI61KJpSD1ZoGMV8x3PBx3DocZi1zEOHTgdmXwOx//QIMo6SDTi0FGART6Ojt2+aV2jW0dQslXLoXp6nY4O3T4q6BpGEajJn650lXggDt2GMoOx1dPi5N4Ad1ucgW+HxePK7n+9kS2ovmONxsPekUcxjkUCloR5gSBi6ykIJmhBhG/icpu9YSbJhsCVniQAXOo10PZMV1TOAadJ5t+GAbhxoyTIQnbCBplyCJ6ZvGUR+dTyqbayc4qISRZLv3gbXmaDIMecQmr/LSWSI+g632oLJx9VdFBNHYdZcxqN4vULJmC/Psid5SqizkMQ2iF+GNE5QfBIfWvBtV2b+7j7X2jPdsnjmPvTDGekllr295t7rWnTnsKe5NK+VWTq+A3EX5NqzYJNIBF8exSfQbX7IrapIGFIL93gqVEQKrEno7REQ0j9pinKPUlKU9SyhPZDj82t2XP+1iOBYP8UG/Oai69sOgkvTD5Eh24Q+rRijdTI8lBRSXgBYuFbBernieUvBNyC81sTgMk6+mPoJzx61U1bTKoIMen8omuSTytrE5PhE8B5371MOm+A33Zw6XFqy51/48FiMbroSoGfkQv56zquTb391tkhzRrzZlt19owqEExntYcPNtvGMas5Ww3+VucUg7FgZKbipPwkkKjGLvV5fTSf8yZ/wWkmqpZ0RsAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +54,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +87,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,135 +409,42 @@
       <c r="F1" s="2">
         <v>-149</v>
       </c>
-      <c r="G1" s="2">
-        <v>-153</v>
-      </c>
-      <c r="H1" s="2">
-        <v>-151</v>
-      </c>
-      <c r="I1" s="2">
-        <v>-158</v>
-      </c>
-      <c r="J1" s="2">
-        <v>-154</v>
-      </c>
-      <c r="K1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="L1" s="2">
-        <v>-139</v>
-      </c>
-      <c r="M1" s="2">
-        <v>-131</v>
-      </c>
-      <c r="N1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="O1" s="2">
-        <v>-137</v>
-      </c>
-      <c r="P1" s="2">
-        <v>-145</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>-134</v>
-      </c>
-      <c r="R1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="S1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="T1" s="2">
-        <v>-142</v>
-      </c>
-      <c r="U1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="V1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="W1" s="2">
-        <v>-125</v>
-      </c>
-      <c r="X1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>-16</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>-13</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>-8</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>-13</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>-8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>6</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1BB5C8-3D3F-41E5-923D-5F760A307B2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_73.xlsx
+++ b/Testdata/TC_73.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0RsAAB+LCAAAAAAAAAOlWVuPI0cV/iuteYIHu9uXuaq2o/FlBgt7PBr3MLt5QeXu8riYvpju6pnx20pRCGzIE0lEIBCWFxBiQx5AQlkU/kuEZ5cn/gKnLn21Z5ceVtZu1/nOOVV16tyqFr1z67naNQkjGviPthp1Y0sjvh041L98tBWzWa2xs/WOifq3NnFPcYg9woBZAyk/OriN6KOtOWOLA12/ubmp37TqQXipNw2joT8eDSf2nHi4Rv2IYd8mW6mU83apLRN1HW9EGHYww1Ly0dZgMqh3CbV7QBthH1+SsN6JI+qTKOr7jDJKIi4ZEsxItzf6gdyY2azv1BtIX6NnnJ2Yuo7kK3BKuuKDaYlFPWI2jaZRM/ZqzbZl7B602wdGq77T2nk3EUwZ0RBHbELCa2oLwoRhbyHEjb1m29htt40W0jcyga7MACYau84ZuaYRcbrEdaNKFtHVAR7aDHZdzZgG0nOyStHDl3Ac4sXcoswlVcWPgpDYYKgHzX1Cbsahsp+1GAJqzWnIlj28rKzrPCLheMGtUU3URL3AZ4cuCdn5Ag6VOHDmAJgsjAnS7wEzoR6NbPimfkwcc4bdKC9UANFFEF5FC2yTEwhYneu48d0AO+BZjEaM2lGmYA1Bp2GwAJUweydwnSNQm3BvQFLdAx+MzCfuBMFVWX0RRMILhD/AqXo41b9GR5N5cDP23eUknkZ2SKfE6XUS7o0Y4rGnpLtxxAIPVpGRkKTlKKORvoQ/EG5lBPWITT3snrpgyciEQC0S0GHMghll3cCNPT81aYmKLmBTFrll6pzTIRrDAfvc7oE/8EtKNmJFibPgJvGddbowQ458GNnpmawjZe4e0JRXrgPiTPgmj6gLxSB/Gjlq0S8mc0LYRqeQCOJ574iXF7Oz5HMiPaMgcE7wcKBC5jR2avBrGpZhHIgfzJzCqO87GV+jWWs1cnwJiE5ibzyFKL4WezIbgJVICHbhdlzsXwH1grL5yWGy+g0Iknu+l38dQxCvCxcvBTm1S56GBr7txg6RaWDgz4RP8rUp7ntxtEYaQmTzLEBmOHah0jDIE5dZCiiR0WF0VebJk9B56CZHaPI6HkEhtx2vbkMG5MWqbgceJ+hQPy8mSM/z8zRuk75/OcT+ZQyJMjVTmZ46EA9xK8R+xPeT5sWSL21mQonZZb425VmMY+Et8iwCQJFe4kMW8RZBiN0RGIYexb4ofirpgyVHmM3VCGLTJXbOyoloKlVcWbLwt7GJKJPb4Ek8H2U5quDim5E9Q44pIyK+z1HgQNnGLp2GBS/aiMGRZTUu8Se+vYr1LjkFaBwhgXyfLHk3kQ0U3VouiNlIADFCXViSOTlr7zW3jZ09yM18jMSWjwNoV30PWLUembIDrRd4hFeuA63TOdAK8CKIKIPjlbZS8fVgLXl5dBSSH8fQKi/F0kbgwAVCEYcMekl97K7xpUDGb46grM7dZY5T7nwY2MB49/E/V19/vnr69erZ8//841er37+3+sn78NHpwF8KfPHLuz9/I3cthZCFpy4RC7M6e3tGqw0OmJIQt7ku6r4T20zQnjwR1T4dI9WfikG3P+geDzvgaDliIs47iZgHyRAvgzgbTuRmxETipPXEQSSLaQl92biA9ggv8TI6eSt6TYrcefw+QWmLVy//8Orli3ullcEKJadZM9o1o/G2ktNo8ZJjbCw5vMWXjZ26QDT2awb8mjnmEg86g3sQ9HGpnQaO2WoY+8burtFI1g+0xK83MZUhpcnCl3pJTpK6QeyzcJm6QH6cgML/LQiWFJYRkRsoV/3bh6//8kmBS1lXUYpaYHFBHEpv0pOBUH1yZmmT8flZt69Z/Qn3kwzL8Unlb2BWs6dxlXea9agruNQmqlT3RsHyjMdhEC/WMkZG3cC5MXesoyVJYZv1pWXYBn51ap//dJOA2onymXOfMrPTszTPT51M0FABkaQcrkLws2/+9fcPVi++WD373d2HP1s9/3j10fOCHjVbeo8B14UAyQ9TT4YspipLiYIuJsKmV8YPc5VEEXkPeBpQn0Vmo7Et+j81RCDb4OrEv2jgQXUTmoXZgF6ioO/hqH/LVLCaJ0gvEmChCwyFNcg65ZQg83Jm3n//5rd3v/7r3adfvf7gT6tnf1z9/NNXL794/eVzGUl3n3x199GXKnOXk7tYC++/ZcuniQudrfEI03iZ1r59+gvND5gG/YUWiyzz7dPPcsr4QkUnkmmG/i1dSHEJa6x5YS6n5ZaSrqEgl4rIWt/lZamVcqjCFCyonU3ybo2rgiZUE8B3BlYtjogWQOv0XdhJkTkT/l/llIgsk6e7RrPRVKhcDd/CFEc50x+7wRS7WgKI61KJpSD1ZoGMV8x3PBx3DocZi1zEOHTgdmXwOx//QIMo6SDTi0FGART6Ojt2+aV2jW0dQslXLoXp6nY4O3T4q6BpGEajJn650lXggDt2GMoOx1dPi5N4Ad1ucgW+HxePK7n+9kS2ovmONxsPekUcxjkUCloR5gSBi6ykIJmhBhG/icpu9YSbJhsCVniQAXOo10PZMV1TOAadJ5t+GAbhxoyTIQnbCBplyCJ6ZvGUR+dTyqbayc4qISRZLv3gbXmaDIMecQmr/LSWSI+g632oLJx9VdFBNHYdZcxqN4vULJmC/Psid5SqizkMQ2iF+GNE5QfBIfWvBtV2b+7j7X2jPdsnjmPvTDGekllr295t7rWnTnsKe5NK+VWTq+A3EX5NqzYJNIBF8exSfQbX7IrapIGFIL93gqVEQKrEno7REQ0j9pinKPUlKU9SyhPZDj82t2XP+1iOBYP8UG/Oai69sOgkvTD5Eh24Q+rRijdTI8lBRSXgBYuFbBernieUvBNyC81sTgMk6+mPoJzx61U1bTKoIMen8omuSTytrE5PhE8B5371MOm+A33Zw6XFqy51/48FiMbroSoGfkQv56zquTb391tkhzRrzZlt19owqEExntYcPNtvGMas5Ww3+VucUg7FgZKbipPwkkKjGLvV5fTSf8yZ/wWkmqpZ0RsAAA==</t>
+          <t>+hkAAB+LCAAAAAAAAAOlGU1v48b1rxA+NQeJpGSvvcYsA0uyXaGSZVh0vZtLMSLHFmuSo5BD27rtpUizaU5NguY7e0pRdNMcWqDItul/CSrv9tS/0DcfHH5I3kTbhWFz3te8ee/N+5hFb95EoXFFkjSg8YMNu2ltGCT2qB/EFw82MnbesO9tvOmg/RuPhMc4wRFhQGwAV5zu3qTBg40pY7Nd07y+vm5et5s0uTBblmWbD4eDsTclEW4Eccpw7JENzeX/ONeGg7p+NCQM+5hhyflgoz/uN7sk8HoAG+IYX5Ck2cnSICZpuh+zgAUk5ZwJwYx0e8NfyoM5rea9po3MJXhB2cmC0Jd0FUoJV3SwLXGDiDgty95pWDuNtu3arV3b2t20mptb1ls5oyZEA5yyMUmuAk8AxgxHM8Fu7bRtu2VbmxYyVxKBrMIADhqF/gm5ClLid0kYpmtZxFQO3PMYnHo9Y4J6JV4l6PVVOEzwbOoGLCTrqdHpuUYUK10KIQ46oAnxwH6vpdIRuR4lyqzubABYdxokbN7D87VlnaYkGc24kdZjdVCPxmwvJAk7nYGviQ+hAAiHJRlB5h3IgqkXpB58B3FGfOcch2mZqYJEZzS5TGfYI0dwj00u4zoOKfYh4FiQssBLCwFLGHSc0BmIhN07NPQPQGxOvQKjZfdjMDLfuEPpZV18FYmEX4WHwasR1vKX4Gg8pdejOJyPs0nqJcGE+L1OTr0Sh/iVVNzdLGU0Ai0KEJKwEmQ4NOfwD25hHYN6xAsiHB6HYMnUaYOgCgDtZYyeB6xLwyyKtUlrUHQGh3LJDVN+1ks0AgfH3O407sc1IStxVY4Tep3HzjJcmKEE3ks97ZNlTJ26BzAVlcsI4RN+yIMghBpR9kYJWo2L8ZQQtjIoJAbxdHjAq47TmfM9kVlAEAQnRDhAHfv+/e2GZcOPa1m74gd21mi0H/viA2rMvYbd4nm7oMuR6CiLRhO4xVfiTI4NuBoIwSnCTojjS4CeBWx6tJdrvwKD5JnvpF/GIbivsxDPBVjbpQxD/dgLM5/INNCPz0VMct0U9Z14tAQawM12EI7n7nzG04F5B0WPnOMshArFIJFcFDmiBkZ76WWdpgxCp0mY+9jh9T+FBsDzo6YHKZIXuaZHIw4woe6ejZFZpud53iP78cUAxxcZZFJtxzpcRxjPAW6C45QfRyfOWrCtJkK5X2RCd6SzRpkIJ+ksClhk1uiQS6IZTXA4BMMEB1ksiqaqCmDhIWZTtYLLGxIvN7JZsGquqma54j9GJq6hPAbP8uVrWIIKKn4Y2WuUiAog4uccUh/KPQ6DSVIJs5U4cFlRBPOA48dbsyDmXoCGEzLML8icdyHFQsF51Dp2jhAr1AWVnPHJ5k5ry7q3A8mbr5E48iGFNjeOgNTokQnbNXo0Iry07Rqdzq5RQc9oGjBwr7SVuoCvLaXMjw4S8nYGLfZcqDaEAK4AqnhIsRdBjMMlOo0o6J0h1N1pOC9RypMPqAeEtx/8a/HdZ4vH3y2ePP3vPz5ZfPrPxW++ho9OB34p5LM/3P75e3lqyYRcPAmJUMzt7OxY7U0IQA1CKm9A+fczjwnYo0eiHdBrpPpaseju97uHg45INBqYs/NWI+OXZIDnNCuWY3kYsZHwtJkHiCRx3DxxqXUF2yO8B5C3k7ewV6RKXcbfxSht8eL51y+eP7uTWxmsKDpQa1oNa/Mn1CS7zWuStbIm8dFAdn754LHFBw+7XSKu0aATmJ+g0dN26vtO27buW9vblq2TvK/jehVRHaUkufjCrPFJUJdmMUvmOgTK6xwp4t+Fy6LR8kaUFipU//bey798WKFS1lWQqhRQjmaJjCYzXwjRRyeuMR6dnnT3DXd/zOOkwJXopPBXEKvd9b0qB83yrauE1CqoFPdKxvqOhwnNZksZo4CuoFyZO5axNU5hm2XVCtwKeuW1z367ikGdRMXMaRwwPcuVYaiCkaASXl3Bj7//99/fWTz7cvHkq9v33l08/WDx/tOKHLWbHnQgdOGClJc6kiGLqcpSg6CzsbDppfWrUiVRQN4kHtMgZqlj21uiQVRLBLw2Fyf+on4E1U1IFmYDeA2Cfo7T/RumLqtzhMwqABSdYSistGilNUDm5cK8//n8i9tP/3r70bcv3/nT4skfF7/76MXzL19+81TepNsPv719/xuVuevJXejCG3TZ8Rli4vMMfsMMXqaNHx7/3ogpM6C/MDKRZX54/HFJGFdUdCKFZOjftCJVFZZIy8yczyiponWo8GkWWeu7vCy1NYUqTHQWeMUmbzW4KGhCDYH4Wd9tZCkxKLROb8BJqsQF80/lUyyyTB5vWy27pbBSG36ECU5Lpj8M6QSHRo4Q81SNpML1aoaCVux3OBh19gYFiVRilPgwfll8KOQfKO8feZnop/lKTxEFBLDQ43lZyCfgJbJllJZcSmemGiXP93z+suhYlhjWqjWvQgEDeZLIbidWz5PjbAadbz4v340XLzGlXvdItqXl7rdY93tVPKxLWChuVTQHCLzIUAols1U/5WOr7FyPuGmKJeAqrzdgDvUCKbunqwBcYvLEs58kNFmZfQpMTjaEphkyillYXNMIn8oG2y98lQPyjKc/5JinTkh7JCRsvec5s+AeQgf8urzg+3VZ++ko9JUx15sytFkKAeU3Sh4o/+8TpQy2vSSBZom/Z6z9pphPqScw3K6pjTyKYOTTHuyuHv0OgiRlD3kmUF8S8khDHsmu86GzuS17y4cSICjkhzqkkm5W1MyvLpMvxTQcBFGw5gRo5fe7KgRsOZvJtqy/XqTw0nJEbqBpLEmApDj5NZQNPsasJ00GLORSzc8fZtLgYsrWVWx7golPJlbDm5BWY9OH5v4+ITAR2PAbey0YI7b4q44SDpkjINdrbmLmDiv+B8f5H94MWG/6GQAA</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,14 +54,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +79,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,42 +401,135 @@
       <c r="F1" s="2">
         <v>-149</v>
       </c>
+      <c r="G1" s="2">
+        <v>-153</v>
+      </c>
+      <c r="H1" s="2">
+        <v>-151</v>
+      </c>
+      <c r="I1" s="2">
+        <v>-158</v>
+      </c>
+      <c r="J1" s="2">
+        <v>-154</v>
+      </c>
+      <c r="K1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="L1" s="2">
+        <v>-139</v>
+      </c>
+      <c r="M1" s="2">
+        <v>-131</v>
+      </c>
+      <c r="N1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="O1" s="2">
+        <v>-137</v>
+      </c>
+      <c r="P1" s="2">
+        <v>-145</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>-134</v>
+      </c>
+      <c r="R1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="S1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="T1" s="2">
+        <v>-142</v>
+      </c>
+      <c r="U1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="V1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="W1" s="2">
+        <v>-125</v>
+      </c>
+      <c r="X1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>-16</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>-8</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>6</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1BB5C8-3D3F-41E5-923D-5F760A307B2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>